--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26860" windowHeight="12740"/>
+    <workbookView windowWidth="26860" windowHeight="12740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="601238.SH-财务摘要" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="124">
   <si>
     <t>广汽集团[601238.SH] - 财务摘要 (单位 : 百万元 , CNY  )</t>
   </si>
@@ -279,7 +279,37 @@
     <t>期末汇率</t>
   </si>
   <si>
-    <t>数据来源：Wind</t>
+    <t>Cost of Goods Sold</t>
+  </si>
+  <si>
+    <t>Cash &amp; Cash Equivalents</t>
+  </si>
+  <si>
+    <t>Net Accounts Receivable</t>
+  </si>
+  <si>
+    <t>Marketable Securities(交易性金融资产）</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Income Tax Expense</t>
+  </si>
+  <si>
+    <t>Cash Flows from Operating Activities</t>
+  </si>
+  <si>
+    <t>Market Price per Share(收盘价，元)</t>
+  </si>
+  <si>
+    <t>Earnings per Share（基本，元）</t>
   </si>
   <si>
     <t>长安汽车[000625.SZ] - 财务摘要 (单位 : 百万元 , CNY  )</t>
@@ -345,7 +375,19 @@
     <t>最新一期对当期原始币种汇率</t>
   </si>
   <si>
+    <t>Marketable Securities</t>
+  </si>
+  <si>
+    <t>Market Price per Share(元)</t>
+  </si>
+  <si>
+    <t>EPS（基本，元）</t>
+  </si>
+  <si>
     <t>吉利汽车[0175.HK] - 财务摘要 (单位 : 百万元 , CNY  )</t>
+  </si>
+  <si>
+    <t>Net Accounts Receivable(披露数据包含应收账款及票据）</t>
   </si>
 </sst>
 </file>
@@ -376,6 +418,13 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -527,11 +576,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -837,31 +881,28 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,125 +911,131 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1"/>
@@ -1342,1850 +1389,2075 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B68" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13392857142857" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="54.5982142857143" style="5" customWidth="1"/>
-    <col min="2" max="7" width="10.7321428571429" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.13392857142857" style="5"/>
+    <col min="1" max="1" width="54.5982142857143" style="6" customWidth="1"/>
+    <col min="2" max="7" width="10.7321428571429" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.13392857142857" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="8">
         <v>71574.94</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>72379.78</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>59704.32</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>63156.99</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>75675.77</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>110006.44</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>44.84</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>1.13</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>-17.51</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>5.78</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>19.82</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>45.37</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="8">
         <v>68438.99</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>70660.03</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>65452.69</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>68155.22</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>80522.17</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>113954.48</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="8">
         <v>11806.51</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>11644.9</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>5681.71</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>5637.92</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>7145.39</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>7455.57</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="8">
         <v>72.28</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>-1.37</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>-51.21</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>-0.77</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>26.74</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>4.34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="8">
         <v>11976.49</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>11867.13</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>6293.96</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>5695.08</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>7236.88</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>7462.51</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>69.86</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>-0.91</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>-46.96</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>-9.52</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>27.07</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>3.12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>10822.24</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="8">
         <v>10946.32</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>6711.15</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>6051.07</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>7391</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>7998.05</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="8">
         <v>71.88</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="8">
         <v>1.15</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="8">
         <v>-38.69</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="8">
         <v>-9.84</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <v>22.14</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>8.21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="8">
         <v>10786.22</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="8">
         <v>10902.65</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>6617.54</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>5965.83</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <v>7334.92</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>8068.19</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>71.53</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>1.08</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>-39.3</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>-9.85</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>22.95</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="8">
         <v>496.95</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="8">
         <v>1099.54</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>2777.02</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>1158.47</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <v>1357.91</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>571.9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="8">
         <v>10289.26</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="8">
         <v>9803.11</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="8">
         <v>3840.52</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="8">
         <v>4807.36</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <v>5977</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>7496.29</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="8">
         <v>68.57</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="8">
         <v>-4.72</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>-60.82</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>25.17</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <v>24.33</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="8">
         <v>25.42</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="8">
         <v>3003</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="8">
         <v>4889</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="8">
         <v>5041</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="8">
         <v>5125</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <v>988.7</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="8">
         <v>6526</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="8">
         <v>5222.96</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="8">
         <v>2581.38</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>-3497.92</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>-3816.47</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <v>-3921.2</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="8">
         <v>-3959.98</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="8">
         <v>7607.96</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="8">
         <v>5695.1</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="8">
         <v>667.21</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="8">
         <v>1410.25</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <v>1897.21</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="8">
         <v>2799.9</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B23" s="8">
         <v>64485.42</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="8">
         <v>66210.98</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="8">
         <v>56864.5</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="8">
         <v>56642.91</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <v>61191.65</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="8">
         <v>91792.17</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="8">
         <v>12151.56</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="8">
         <v>13887.46</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>17474.42</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>18359.88</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <v>17507.19</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <v>19283.53</v>
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>25720.72</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="8">
         <v>28972.89</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="8">
         <v>31982.36</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="8">
         <v>33381.14</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <v>36904.57</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="8">
         <v>37788.36</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>119602.42</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="8">
         <v>132119.73</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>137409.53</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>142806.66</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>154196.56</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="8">
         <v>190020.75</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>45.69</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="8">
         <v>10.47</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="8">
         <v>4</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="8">
         <v>3.93</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <v>7.98</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="8">
         <v>23.23</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>36739.32</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="8">
         <v>40499.37</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>41585.35</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>42384.55</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <v>48806.26</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="8">
         <v>56576.1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>12449.13</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="8">
         <v>13699.68</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="8">
         <v>13369.96</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="8">
         <v>13762.51</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <v>12795.55</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="8">
         <v>11196.36</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>49188.45</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="8">
         <v>54199.05</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>54955.31</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>56147.06</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <v>61601.8</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="8">
         <v>67772.46</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>32.04</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="8">
         <v>10.19</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>1.4</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="8">
         <v>2.17</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <v>9.72</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="8">
         <v>10.02</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>70413.97</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="8">
         <v>77920.68</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>82454.22</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>86659.6</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <v>92594.76</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="8">
         <v>122248.29</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>69370.24</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="8">
         <v>76549.83</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="8">
         <v>80134.09</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="8">
         <v>84321.01</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <v>90259.29</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="8">
         <v>113234.68</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="8">
         <v>58.37</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="8">
         <v>10.35</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="8">
         <v>4.68</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <v>5.22</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <v>7.04</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="8">
         <v>25.45</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>24747.75</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="8">
         <v>22382.8</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="8">
         <v>22704.37</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <v>23029.97</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <v>24002.63</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="8">
         <v>41240.56</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>3191.9</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="8">
         <v>3817.3</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <v>4740.74</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <v>5498.4</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <v>5498.4</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="8">
         <v>5498.4</v>
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>33554.12</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="8">
         <v>39243.79</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="8">
         <v>41558.73</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <v>44850.17</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <v>50172.49</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="8">
         <v>55711.19</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="8">
         <v>81173.81</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="8">
         <v>78426.37</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="8">
         <v>67298.08</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <v>71166.78</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <v>88766.67</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="8">
         <v>129439</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>15097.88</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="8">
         <v>-1268.12</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>-380.57</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>-2887.23</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <v>-5589.26</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="8">
         <v>-5348.88</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>6209.26</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="8">
         <v>9852.01</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="8">
         <v>10100.64</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <v>6585.56</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <v>6242.94</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="8">
         <v>8013.51</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>12453.95</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="8">
         <v>6514.58</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="8">
         <v>8705.37</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <v>6683.86</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <v>9061.92</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="8">
         <v>9633.06</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>2926.25</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="8">
         <v>-5581.21</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="8">
         <v>-4825.68</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <v>468.81</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <v>1648.89</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="8">
         <v>-3833.79</v>
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="8">
         <v>15050.32</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="8">
         <v>359.67</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="8">
         <v>1116.3</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="8">
         <v>624.77</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <v>113.71</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="8">
         <v>22323.75</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="8">
         <v>1879.87</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="8">
         <v>4350.75</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="8">
         <v>4445.47</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="8">
         <v>8526.52</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <v>8249.49</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="8">
         <v>24042.66</v>
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="8">
         <v>9568.08</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="8">
         <v>-2474.41</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <v>-2325.45</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="8">
         <v>-1794.27</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <v>72.84</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="8">
         <v>24277.25</v>
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="8">
         <v>27542.55</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="8">
         <v>-9245.78</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="8">
         <v>-7501.36</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="8">
         <v>-4273.62</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <v>-3951.76</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="8">
         <v>15139.02</v>
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="8">
         <v>47312.05</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="8">
         <v>38066.27</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="8">
         <v>30564.91</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="8">
         <v>26291.29</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <v>22339.53</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="8">
         <v>37478.55</v>
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="8">
         <v>2385.01</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="8">
         <v>3113.72</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="8">
         <v>4165.13</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="8">
         <v>5226.72</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <v>5818.41</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="8">
         <v>6759.88</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="7" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="8">
         <v>15.55</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="8">
         <v>14.24</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="8">
         <v>8.26</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="8">
         <v>7.08</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <v>8.13</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="8">
         <v>7.13</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="8">
         <v>21.49</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="8">
         <v>14.97</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="8">
         <v>8.46</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="8">
         <v>7.27</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <v>8.42</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="8">
         <v>7.93</v>
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="8">
         <v>14.83</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="8">
         <v>12.81</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="8">
         <v>4.79</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="8">
         <v>5.7</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <v>6.62</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="8">
         <v>6.62</v>
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="8">
         <v>15.55</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="8">
         <v>14.24</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="8">
         <v>8.26</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="8">
         <v>7.08</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <v>8.13</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="8">
         <v>7.13</v>
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="8">
         <v>10.73</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="8">
         <v>8.7</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="8">
         <v>4.98</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="8">
         <v>4.32</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <v>4.98</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="8">
         <v>4.65</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="8">
         <v>14.76</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="8">
         <v>11.41</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="8">
         <v>6.13</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="8">
         <v>5.24</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <v>6.55</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="8">
         <v>5.53</v>
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="8">
         <v>23</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="8">
         <v>18.56</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="8">
         <v>6.9</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="8">
         <v>6.47</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <v>7.92</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="8">
         <v>6.99</v>
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="8">
         <v>15.21</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="8">
         <v>15.31</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="8">
         <v>11.33</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="8">
         <v>9.65</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <v>9.84</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="8">
         <v>7.32</v>
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="8">
         <v>14.38</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="8">
         <v>13.54</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="8">
         <v>6.43</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="8">
         <v>7.61</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <v>7.9</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="8">
         <v>6.81</v>
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="7">
+      <c r="B60" s="8">
         <v>7.3</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="8">
         <v>3.57</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="8">
         <v>-5.86</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="8">
         <v>-6.04</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <v>-5.18</v>
       </c>
-      <c r="G60" s="7">
+      <c r="G60" s="8">
         <v>-3.6</v>
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B61" s="8">
         <v>10.63</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="8">
         <v>7.87</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="8">
         <v>1.12</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="8">
         <v>2.23</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="8">
         <v>2.51</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="8">
         <v>2.55</v>
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="7">
+      <c r="B62" s="8">
         <v>41.13</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="8">
         <v>41.02</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="8">
         <v>39.99</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="8">
         <v>39.32</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="8">
         <v>39.95</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="8">
         <v>35.67</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="7">
+      <c r="B63" s="8">
         <v>0.71</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="8">
         <v>0.58</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="8">
         <v>0.44</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="8">
         <v>0.45</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="8">
         <v>0.51</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="8">
         <v>0.64</v>
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B64" s="8">
         <v>114.1</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="8">
         <v>109.66</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
         <v>113.61</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="8">
         <v>113.47</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="8">
         <v>118.18</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="8">
         <v>118.39</v>
       </c>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="7">
+      <c r="B66" s="8">
         <v>1.65</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="8">
         <v>1.07</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="8">
         <v>0.65</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="8">
         <v>0.58</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="8">
         <v>0.72</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="8">
         <v>0.78</v>
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="7">
+      <c r="B67" s="8">
         <v>1.61</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="8">
         <v>1.06</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="8">
         <v>0.64</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="8">
         <v>0.58</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="8">
         <v>0.71</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="8">
         <v>0.77</v>
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="7">
+      <c r="B68" s="8">
         <v>1.48</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="8">
         <v>1.07</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="8">
         <v>0.65</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="8">
         <v>0.58</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="8">
         <v>0.71</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="8">
         <v>0.77</v>
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="7">
+      <c r="B69" s="8">
         <v>1.57</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="8">
         <v>0.96</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="8">
         <v>0.38</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="8">
         <v>0.47</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="8">
         <v>0.58</v>
       </c>
-      <c r="G69" s="7">
+      <c r="G69" s="8">
         <v>0.72</v>
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="7">
+      <c r="B70" s="8">
         <v>9.48</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="8">
         <v>7.46</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="8">
         <v>7.8</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="8">
         <v>8.12</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="8">
         <v>8.68</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="8">
         <v>10.8</v>
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="7">
+      <c r="B71" s="8">
         <v>9.81</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="8">
         <v>7.07</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="8">
         <v>5.83</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="8">
         <v>6.1</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <v>7.3</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="8">
         <v>10.49</v>
       </c>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="7">
+      <c r="B72" s="8">
         <v>2.07</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="8">
         <v>-0.12</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="8">
         <v>-0.04</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="8">
         <v>-0.28</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="8">
         <v>-0.54</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="8">
         <v>-0.51</v>
       </c>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="7">
+      <c r="B73" s="8">
         <v>3.78</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="8">
         <v>-0.9</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="8">
         <v>-0.73</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="8">
         <v>-0.41</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="8">
         <v>-0.38</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="8">
         <v>1.44</v>
       </c>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="7">
+      <c r="B74" s="8">
         <v>1.58</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="8">
         <v>-0.98</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="8">
         <v>-1.11</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="8">
         <v>-0.82</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="8">
         <v>-0.87</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="8">
         <v>-1.6</v>
       </c>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="7">
+      <c r="B75" s="8">
         <v>18.63</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="8">
         <v>9.01</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="8">
         <v>16.22</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="8">
         <v>26</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="8">
         <v>25.18</v>
       </c>
-      <c r="G75" s="7">
+      <c r="G75" s="8">
         <v>11.41</v>
       </c>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="7">
+      <c r="B76" s="8">
         <v>28.56</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="8">
         <v>9.76</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="8">
         <v>10.98</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="8">
         <v>20.77</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="8">
         <v>26.37</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="8">
         <v>15.74</v>
       </c>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="7">
+      <c r="B77" s="8">
         <v>3.49</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="8">
         <v>1.4</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="8">
         <v>1.51</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="8">
         <v>1.66</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="8">
         <v>1.8</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="8">
         <v>1.15</v>
       </c>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="7">
+      <c r="B78" s="8">
         <v>2.7</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="8">
         <v>1.45</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="8">
         <v>1.95</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="8">
         <v>2.31</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="8">
         <v>2.1</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="8">
         <v>1.15</v>
       </c>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="8">
+      <c r="B80" s="9">
         <v>84290</v>
       </c>
-      <c r="C80" s="8">
+      <c r="C80" s="9">
         <v>94856</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80" s="9">
         <v>93854</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80" s="9">
         <v>93745</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="9">
         <v>96989</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80" s="9">
         <v>100121</v>
       </c>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="E81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="G81" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="E82" s="5" t="s">
+      <c r="E82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="G82" s="5" t="s">
+      <c r="G82" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="9">
         <v>1</v>
       </c>
-      <c r="C83" s="8">
+      <c r="C83" s="9">
         <v>1</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="9">
         <v>1</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83" s="9">
         <v>1</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="9">
         <v>1</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G84" s="5" t="s">
+      <c r="G84" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
+    <row r="85" spans="1:7">
+      <c r="A85" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="5">
+        <v>68438.99</v>
+      </c>
+      <c r="C85" s="5">
+        <v>70660.03</v>
+      </c>
+      <c r="D85" s="5">
+        <v>65452.69</v>
+      </c>
+      <c r="E85" s="5">
+        <v>68155.22</v>
+      </c>
+      <c r="F85" s="5">
+        <v>80522.17</v>
+      </c>
+      <c r="G85" s="5">
+        <v>113954.48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="5">
+        <v>49467.95</v>
+      </c>
+      <c r="C86" s="5">
+        <v>41908.21</v>
+      </c>
+      <c r="D86" s="5">
+        <v>32242.93</v>
+      </c>
+      <c r="E86" s="5">
+        <v>28500.07</v>
+      </c>
+      <c r="F86" s="5">
+        <v>24035.91</v>
+      </c>
+      <c r="G86" s="5">
+        <v>39524.43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="B87" s="5">
+        <v>1373.81</v>
+      </c>
+      <c r="C87" s="5">
+        <v>2158.53</v>
+      </c>
+      <c r="D87" s="5">
+        <v>3466.35</v>
+      </c>
+      <c r="E87" s="5">
+        <v>4317.2</v>
+      </c>
+      <c r="F87" s="5">
+        <v>7222.25</v>
+      </c>
+      <c r="G87" s="5">
+        <v>8408.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="5">
+        <v>608.93</v>
+      </c>
+      <c r="C88" s="5">
+        <v>967.73</v>
+      </c>
+      <c r="D88" s="5">
+        <v>842.85</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1595.01</v>
+      </c>
+      <c r="F88" s="5">
+        <v>3225.64</v>
+      </c>
+      <c r="G88" s="5">
+        <v>4219.72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="5">
+        <v>10822.24</v>
+      </c>
+      <c r="C89" s="5">
+        <v>10946.32</v>
+      </c>
+      <c r="D89" s="5">
+        <v>6711.15</v>
+      </c>
+      <c r="E89" s="5">
+        <v>6051.07</v>
+      </c>
+      <c r="F89" s="5">
+        <v>7391</v>
+      </c>
+      <c r="G89" s="5">
+        <v>7998.05</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" s="5">
+        <v>438.26</v>
+      </c>
+      <c r="D90" s="5">
+        <v>498.75</v>
+      </c>
+      <c r="E90" s="5">
+        <v>423.99</v>
+      </c>
+      <c r="F90" s="5">
+        <v>449.4</v>
+      </c>
+      <c r="G90" s="5">
+        <v>328.07</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B91" s="5">
+        <v>1154.26</v>
+      </c>
+      <c r="C91" s="5">
+        <v>920.81</v>
+      </c>
+      <c r="D91" s="5">
+        <v>-417.19</v>
+      </c>
+      <c r="E91" s="5">
+        <v>-355.99</v>
+      </c>
+      <c r="F91" s="5">
+        <v>-154.12</v>
+      </c>
+      <c r="G91" s="5">
+        <v>-535.54</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B92" s="5">
+        <v>15097.88</v>
+      </c>
+      <c r="C92" s="5">
+        <v>-1268.12</v>
+      </c>
+      <c r="D92" s="5">
+        <v>-380.57</v>
+      </c>
+      <c r="E92" s="5">
+        <v>-2887.23</v>
+      </c>
+      <c r="F92" s="5">
+        <v>-5589.26</v>
+      </c>
+      <c r="G92" s="5">
+        <v>-5348.88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="5">
+        <v>24.66</v>
+      </c>
+      <c r="C93" s="5">
+        <v>10.29</v>
+      </c>
+      <c r="D93" s="5">
+        <v>11.69</v>
+      </c>
+      <c r="E93" s="5">
+        <v>13.29</v>
+      </c>
+      <c r="F93" s="5">
+        <v>15.19</v>
+      </c>
+      <c r="G93" s="5">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B94" s="5">
+        <v>1.65</v>
+      </c>
+      <c r="C94" s="5">
+        <v>1.07</v>
+      </c>
+      <c r="D94" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="E94" s="5">
+        <v>0.58</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="G94" s="5">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -3198,1354 +3470,1579 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B$1:E$1048576"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71:G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13392857142857" defaultRowHeight="16.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="54.5982142857143" style="5" customWidth="1"/>
-    <col min="2" max="7" width="10.7321428571429" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.13392857142857" style="5"/>
+    <col min="1" max="1" width="54.5982142857143" style="6" customWidth="1"/>
+    <col min="2" max="7" width="10.7321428571429" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="9.13392857142857" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="8">
+        <v>76938.18</v>
+      </c>
+      <c r="C6" s="8">
+        <v>63992.35</v>
+      </c>
+      <c r="D6" s="8">
+        <v>68107.19</v>
+      </c>
+      <c r="E6" s="8">
+        <v>81337.27</v>
+      </c>
+      <c r="F6" s="8">
+        <v>101169.44</v>
+      </c>
+      <c r="G6" s="8">
+        <v>117151.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-16.83</v>
+      </c>
+      <c r="D7" s="8">
+        <v>6.43</v>
+      </c>
+      <c r="E7" s="8">
+        <v>19.43</v>
+      </c>
+      <c r="F7" s="8">
+        <v>24.38</v>
+      </c>
+      <c r="G7" s="8">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="8">
+        <v>78710.32</v>
+      </c>
+      <c r="C8" s="8">
+        <v>67286.27</v>
+      </c>
+      <c r="D8" s="8">
+        <v>70482.76</v>
+      </c>
+      <c r="E8" s="8">
+        <v>86457.57</v>
+      </c>
+      <c r="F8" s="8">
+        <v>101370.6</v>
+      </c>
+      <c r="G8" s="8">
+        <v>111319.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>-1772.14</v>
+      </c>
+      <c r="C9" s="8">
+        <v>-3293.92</v>
+      </c>
+      <c r="D9" s="8">
+        <v>-2375.57</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-5120.3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>-201.16</v>
+      </c>
+      <c r="G9" s="8">
+        <v>5831.28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="8">
+        <v>-1090.8</v>
+      </c>
+      <c r="C10" s="8">
+        <v>-85.87</v>
+      </c>
+      <c r="D10" s="8">
+        <v>27.88</v>
+      </c>
+      <c r="E10" s="8">
+        <v>-66.92</v>
+      </c>
+      <c r="F10" s="8">
+        <v>95.4</v>
+      </c>
+      <c r="G10" s="8">
+        <v>2998.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7180.89</v>
+      </c>
+      <c r="C11" s="8">
+        <v>658.23</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-2242.37</v>
+      </c>
+      <c r="E11" s="8">
+        <v>2596.59</v>
+      </c>
+      <c r="F11" s="8">
+        <v>3820.61</v>
+      </c>
+      <c r="G11" s="8">
+        <v>7708.26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <v>-30.62</v>
+      </c>
+      <c r="C12" s="8">
+        <v>-90.83</v>
+      </c>
+      <c r="D12" s="8">
+        <v>-440.67</v>
+      </c>
+      <c r="E12" s="8">
+        <v>215.8</v>
+      </c>
+      <c r="F12" s="8">
+        <v>47.14</v>
+      </c>
+      <c r="G12" s="8">
+        <v>101.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="8">
+        <v>7137.23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>680.73</v>
+      </c>
+      <c r="D13" s="8">
+        <v>-2646.72</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3324.25</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3552.46</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7798.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>-30.61</v>
+      </c>
+      <c r="C14" s="8">
+        <v>-90.46</v>
+      </c>
+      <c r="D14" s="8">
+        <v>-488.81</v>
+      </c>
+      <c r="E14" s="8">
+        <v>225.6</v>
+      </c>
+      <c r="F14" s="8">
+        <v>6.87</v>
+      </c>
+      <c r="G14" s="8">
+        <v>119.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1717.79</v>
+      </c>
+      <c r="C15" s="8">
+        <v>3980.16</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2348.18</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2007.87</v>
+      </c>
+      <c r="F15" s="8">
+        <v>132.16</v>
+      </c>
+      <c r="G15" s="8">
+        <v>78.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="8">
+        <v>5419.45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-3299.43</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-4994.9</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1316.38</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3420.3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>7720.36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-42.05</v>
+      </c>
+      <c r="C17" s="8">
+        <v>-160.88</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-52.74</v>
+      </c>
+      <c r="E17" s="8">
+        <v>138.71</v>
+      </c>
+      <c r="F17" s="8">
+        <v>159.83</v>
+      </c>
+      <c r="G17" s="8">
+        <v>125.72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="8">
+        <v>6619.42</v>
+      </c>
+      <c r="C19" s="8">
+        <v>193</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-2447.78</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2596.59</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3820.61</v>
+      </c>
+      <c r="G19" s="8">
+        <v>7708.26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="8">
+        <v>9182.32</v>
+      </c>
+      <c r="C20" s="8">
+        <v>3297.19</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1600.2</v>
+      </c>
+      <c r="E20" s="8">
+        <v>6972.97</v>
+      </c>
+      <c r="F20" s="8">
+        <v>7825.51</v>
+      </c>
+      <c r="G20" s="8">
+        <v>11595.03</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8">
+        <v>62756.62</v>
+      </c>
+      <c r="C25" s="8">
+        <v>43213.28</v>
+      </c>
+      <c r="D25" s="8">
+        <v>49606.72</v>
+      </c>
+      <c r="E25" s="8">
+        <v>72889.65</v>
+      </c>
+      <c r="F25" s="8">
+        <v>91140.44</v>
+      </c>
+      <c r="G25" s="8">
+        <v>102075.78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="8">
+        <v>14098.52</v>
+      </c>
+      <c r="C27" s="8">
+        <v>13275.17</v>
+      </c>
+      <c r="D27" s="8">
+        <v>11008.34</v>
+      </c>
+      <c r="E27" s="8">
+        <v>12109.09</v>
+      </c>
+      <c r="F27" s="8">
+        <v>13245.37</v>
+      </c>
+      <c r="G27" s="8">
+        <v>14406.66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="8">
+        <v>106125.11</v>
+      </c>
+      <c r="C28" s="8">
+        <v>93488.85</v>
+      </c>
+      <c r="D28" s="8">
+        <v>97617.05</v>
+      </c>
+      <c r="E28" s="8">
+        <v>120915.81</v>
+      </c>
+      <c r="F28" s="8">
+        <v>135404.62</v>
+      </c>
+      <c r="G28" s="8">
+        <v>146048.56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="8">
+        <v>54602.7</v>
+      </c>
+      <c r="C29" s="8">
+        <v>43159.96</v>
+      </c>
+      <c r="D29" s="8">
+        <v>49233.36</v>
+      </c>
+      <c r="E29" s="8">
+        <v>62592.98</v>
+      </c>
+      <c r="F29" s="8">
+        <v>76106.71</v>
+      </c>
+      <c r="G29" s="8">
+        <v>79948.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4059.24</v>
+      </c>
+      <c r="C30" s="8">
+        <v>4175.97</v>
+      </c>
+      <c r="D30" s="8">
+        <v>4449.62</v>
+      </c>
+      <c r="E30" s="8">
+        <v>4842.52</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3431.68</v>
+      </c>
+      <c r="G30" s="8">
+        <v>3151.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="8">
+        <v>58661.94</v>
+      </c>
+      <c r="C31" s="8">
+        <v>47335.93</v>
+      </c>
+      <c r="D31" s="8">
+        <v>53682.98</v>
+      </c>
+      <c r="E31" s="8">
+        <v>67435.5</v>
+      </c>
+      <c r="F31" s="8">
+        <v>79538.38</v>
+      </c>
+      <c r="G31" s="8">
+        <v>83099.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="8">
+        <v>47463.18</v>
+      </c>
+      <c r="C32" s="8">
+        <v>46152.92</v>
+      </c>
+      <c r="D32" s="8">
+        <v>43934.07</v>
+      </c>
+      <c r="E32" s="8">
+        <v>53480.31</v>
+      </c>
+      <c r="F32" s="8">
+        <v>55866.24</v>
+      </c>
+      <c r="G32" s="8">
+        <v>62948.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" s="8">
+        <v>47598.69</v>
+      </c>
+      <c r="C33" s="8">
+        <v>46244.96</v>
+      </c>
+      <c r="D33" s="8">
+        <v>44028.31</v>
+      </c>
+      <c r="E33" s="8">
+        <v>53410.19</v>
+      </c>
+      <c r="F33" s="8">
+        <v>55732.93</v>
+      </c>
+      <c r="G33" s="8">
+        <v>62858.11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="8">
+        <v>-1369.58</v>
+      </c>
+      <c r="C35" s="8">
+        <v>-3887.48</v>
+      </c>
+      <c r="D35" s="8">
+        <v>3881.75</v>
+      </c>
+      <c r="E35" s="8">
+        <v>10675.95</v>
+      </c>
+      <c r="F35" s="8">
+        <v>22971.72</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5666.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="8">
+        <v>4427.99</v>
+      </c>
+      <c r="C36" s="8">
+        <v>-6568.72</v>
+      </c>
+      <c r="D36" s="8">
+        <v>-3794.61</v>
+      </c>
+      <c r="E36" s="8">
+        <v>3604.7</v>
+      </c>
+      <c r="F36" s="8">
+        <v>-1489.23</v>
+      </c>
+      <c r="G36" s="8">
+        <v>-2953.97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="8">
+        <v>-4574.97</v>
+      </c>
+      <c r="C37" s="8">
+        <v>-1352.69</v>
+      </c>
+      <c r="D37" s="8">
+        <v>-400.57</v>
+      </c>
+      <c r="E37" s="8">
+        <v>7047.39</v>
+      </c>
+      <c r="F37" s="8">
+        <v>-2595.96</v>
+      </c>
+      <c r="G37" s="8">
+        <v>224.43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="8">
+        <v>-1542.13</v>
+      </c>
+      <c r="C38" s="8">
+        <v>-11803.15</v>
+      </c>
+      <c r="D38" s="8">
+        <v>-287.68</v>
+      </c>
+      <c r="E38" s="8">
+        <v>21295.49</v>
+      </c>
+      <c r="F38" s="8">
+        <v>18861.95</v>
+      </c>
+      <c r="G38" s="8">
+        <v>2973.52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="8">
+        <v>21451.31</v>
+      </c>
+      <c r="C39" s="8">
+        <v>9648.15</v>
+      </c>
+      <c r="D39" s="8">
+        <v>9360.47</v>
+      </c>
+      <c r="E39" s="8">
+        <v>30655.97</v>
+      </c>
+      <c r="F39" s="8">
+        <v>49517.92</v>
+      </c>
+      <c r="G39" s="8">
+        <v>52491.44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3308.58</v>
+      </c>
+      <c r="C40" s="8">
+        <v>6488.33</v>
+      </c>
+      <c r="D40" s="8">
+        <v>4783.72</v>
+      </c>
+      <c r="E40" s="8">
+        <v>2960.05</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2009.77</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="8">
+        <v>15.66</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1.45</v>
+      </c>
+      <c r="D42" s="8">
+        <v>-5.86</v>
+      </c>
+      <c r="E42" s="8">
+        <v>6.82</v>
+      </c>
+      <c r="F42" s="8">
+        <v>6.51</v>
+      </c>
+      <c r="G42" s="8">
+        <v>13.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="8">
+        <v>14.99</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="D43" s="8">
+        <v>-6.01</v>
+      </c>
+      <c r="E43" s="8">
+        <v>6.22</v>
+      </c>
+      <c r="F43" s="8">
+        <v>6.37</v>
+      </c>
+      <c r="G43" s="8">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="8">
+        <v>11.89</v>
+      </c>
+      <c r="C44" s="8">
+        <v>-7.03</v>
+      </c>
+      <c r="D44" s="8">
+        <v>-11.07</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2.7</v>
+      </c>
+      <c r="F44" s="8">
+        <v>6.27</v>
+      </c>
+      <c r="G44" s="8">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="8">
+        <v>14.99</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1.47</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-6.01</v>
+      </c>
+      <c r="E45" s="8">
+        <v>6.22</v>
+      </c>
+      <c r="F45" s="8">
+        <v>6.37</v>
+      </c>
+      <c r="G45" s="8">
+        <v>12.41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="8">
+        <v>6.71</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="D46" s="8">
+        <v>-2.77</v>
+      </c>
+      <c r="E46" s="8">
+        <v>3.04</v>
+      </c>
+      <c r="F46" s="8">
+        <v>2.77</v>
+      </c>
+      <c r="G46" s="8">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="8">
+        <v>10.85</v>
+      </c>
+      <c r="C47" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="D47" s="8">
+        <v>-5.83</v>
+      </c>
+      <c r="E47" s="8">
+        <v>6.69</v>
+      </c>
+      <c r="F47" s="8">
+        <v>6.35</v>
+      </c>
+      <c r="G47" s="8">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="8">
+        <v>9.85</v>
+      </c>
+      <c r="C48" s="8">
+        <v>11.58</v>
+      </c>
+      <c r="D48" s="8">
+        <v>11.56</v>
+      </c>
+      <c r="E48" s="8">
+        <v>10.9</v>
+      </c>
+      <c r="F48" s="8">
+        <v>13.36</v>
+      </c>
+      <c r="G48" s="8">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="8">
+        <v>9.37</v>
+      </c>
+      <c r="C49" s="8">
+        <v>1.13</v>
+      </c>
+      <c r="D49" s="8">
+        <v>-3.89</v>
+      </c>
+      <c r="E49" s="8">
+        <v>4.04</v>
+      </c>
+      <c r="F49" s="8">
+        <v>3.56</v>
+      </c>
+      <c r="G49" s="8">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D50" s="8">
+        <v>-3.59</v>
+      </c>
+      <c r="E50" s="8">
+        <v>3.19</v>
+      </c>
+      <c r="F50" s="8">
+        <v>3.78</v>
+      </c>
+      <c r="G50" s="8">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="8">
+        <v>11.93</v>
+      </c>
+      <c r="C51" s="8">
+        <v>5.15</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2.35</v>
+      </c>
+      <c r="E51" s="8">
+        <v>8.57</v>
+      </c>
+      <c r="F51" s="8">
+        <v>7.74</v>
+      </c>
+      <c r="G51" s="8">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="8">
+        <v>55.28</v>
+      </c>
+      <c r="C52" s="8">
+        <v>50.63</v>
+      </c>
+      <c r="D52" s="8">
+        <v>54.99</v>
+      </c>
+      <c r="E52" s="8">
+        <v>55.77</v>
+      </c>
+      <c r="F52" s="8">
+        <v>58.74</v>
+      </c>
+      <c r="G52" s="8">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.72</v>
+      </c>
+      <c r="C53" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0.71</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.74</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.79</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="8">
+        <v>0.46</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="C56" s="8">
+        <v>0.14</v>
+      </c>
+      <c r="D56" s="8">
+        <v>-0.55</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="F56" s="8">
+        <v>0.47</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" s="8">
+        <v>9.91</v>
+      </c>
+      <c r="C57" s="8">
+        <v>9.63</v>
+      </c>
+      <c r="D57" s="8">
+        <v>9.17</v>
+      </c>
+      <c r="E57" s="8">
+        <v>9.96</v>
+      </c>
+      <c r="F57" s="8">
+        <v>7.3</v>
+      </c>
+      <c r="G57" s="8">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="8">
+        <v>-0.29</v>
+      </c>
+      <c r="C58" s="8">
+        <v>-0.81</v>
+      </c>
+      <c r="D58" s="8">
+        <v>0.81</v>
+      </c>
+      <c r="E58" s="8">
+        <v>1.99</v>
+      </c>
+      <c r="F58" s="8">
+        <v>3.01</v>
+      </c>
+      <c r="G58" s="8">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="8">
+        <v>-0.32</v>
+      </c>
+      <c r="C59" s="8">
+        <v>-2.46</v>
+      </c>
+      <c r="D59" s="8">
+        <v>-0.06</v>
+      </c>
+      <c r="E59" s="8">
+        <v>3.97</v>
+      </c>
+      <c r="F59" s="8">
+        <v>2.47</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="9">
+        <v>39138</v>
+      </c>
+      <c r="C65" s="9">
+        <v>36029</v>
+      </c>
+      <c r="D65" s="9">
+        <v>36764</v>
+      </c>
+      <c r="E65" s="9">
+        <v>40298</v>
+      </c>
+      <c r="F65" s="9">
+        <v>42444</v>
+      </c>
+      <c r="G65" s="9">
+        <v>42894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="9">
+        <v>1</v>
+      </c>
+      <c r="C68" s="9">
+        <v>1</v>
+      </c>
+      <c r="D68" s="9">
+        <v>1</v>
+      </c>
+      <c r="E68" s="9">
+        <v>1</v>
+      </c>
+      <c r="F68" s="9">
+        <v>1</v>
+      </c>
+      <c r="G68" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="9">
+        <v>1</v>
+      </c>
+      <c r="C70" s="9">
+        <v>1</v>
+      </c>
+      <c r="D70" s="9">
+        <v>1</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1</v>
+      </c>
+      <c r="F70" s="9">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="5">
+        <v>78710.32</v>
+      </c>
+      <c r="C71" s="5">
+        <v>67286.27</v>
+      </c>
+      <c r="D71" s="5">
+        <v>70482.76</v>
+      </c>
+      <c r="E71" s="5">
+        <v>86457.57</v>
+      </c>
+      <c r="F71" s="5">
+        <v>101370.6</v>
+      </c>
+      <c r="G71" s="5">
+        <v>111319.73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="B72" s="5">
+        <v>22631.53649653</v>
+      </c>
+      <c r="C72" s="5">
+        <v>9980.54452614</v>
+      </c>
+      <c r="D72" s="5">
+        <v>10066.17135348</v>
+      </c>
+      <c r="E72" s="5">
+        <v>32001.77560007</v>
+      </c>
+      <c r="F72" s="5">
+        <v>51976.24214937</v>
+      </c>
+      <c r="G72" s="5">
+        <v>53530.18382734</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="7">
-        <v>76938.18</v>
-      </c>
-      <c r="C6" s="7">
-        <v>63992.35</v>
-      </c>
-      <c r="D6" s="7">
-        <v>68107.19</v>
-      </c>
-      <c r="E6" s="7">
-        <v>81337.27</v>
-      </c>
-      <c r="F6" s="7">
-        <v>101169.44</v>
-      </c>
-      <c r="G6" s="7">
-        <v>117151.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="C7" s="7">
-        <v>-16.83</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6.43</v>
-      </c>
-      <c r="E7" s="7">
-        <v>19.43</v>
-      </c>
-      <c r="F7" s="7">
-        <v>24.38</v>
-      </c>
-      <c r="G7" s="7">
-        <v>15.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="5" t="s">
+      <c r="B73" s="5">
+        <v>1806.80719304</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1409.4196005</v>
+      </c>
+      <c r="D73" s="5">
+        <v>838.31407682</v>
+      </c>
+      <c r="E73" s="5">
+        <v>2141.19713945</v>
+      </c>
+      <c r="F73" s="5">
+        <v>1675.42753487</v>
+      </c>
+      <c r="G73" s="5">
+        <v>3068.41441529</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="5">
+        <v>2419.4762</v>
+      </c>
+      <c r="E74" s="5">
+        <v>204.2544</v>
+      </c>
+      <c r="F74" s="5">
+        <v>195.7983</v>
+      </c>
+      <c r="G74" s="5">
+        <v>280.31557109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="7">
-        <v>78710.32</v>
-      </c>
-      <c r="C8" s="7">
-        <v>67286.27</v>
-      </c>
-      <c r="D8" s="7">
-        <v>70482.76</v>
-      </c>
-      <c r="E8" s="7">
-        <v>86457.57</v>
-      </c>
-      <c r="F8" s="7">
-        <v>101370.6</v>
-      </c>
-      <c r="G8" s="7">
-        <v>111319.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="7">
-        <v>-1772.14</v>
-      </c>
-      <c r="C9" s="7">
-        <v>-3293.92</v>
-      </c>
-      <c r="D9" s="7">
-        <v>-2375.57</v>
-      </c>
-      <c r="E9" s="7">
-        <v>-5120.3</v>
-      </c>
-      <c r="F9" s="7">
-        <v>-201.16</v>
-      </c>
-      <c r="G9" s="7">
-        <v>5831.28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="7">
-        <v>-1090.8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>-85.87</v>
-      </c>
-      <c r="D10" s="7">
-        <v>27.88</v>
-      </c>
-      <c r="E10" s="7">
-        <v>-66.92</v>
-      </c>
-      <c r="F10" s="7">
-        <v>95.4</v>
-      </c>
-      <c r="G10" s="7">
-        <v>2998.83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="5" t="s">
+      <c r="B75" s="5">
+        <v>7208.43727006</v>
+      </c>
+      <c r="C75" s="5">
+        <v>723.35938187</v>
+      </c>
+      <c r="D75" s="5">
+        <v>-2649.13189088</v>
+      </c>
+      <c r="E75" s="5">
+        <v>3288.4786427</v>
+      </c>
+      <c r="F75" s="5">
+        <v>3604.21818998</v>
+      </c>
+      <c r="G75" s="5">
+        <v>7744.68235597</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="7">
-        <v>7180.89</v>
-      </c>
-      <c r="C11" s="7">
-        <v>658.23</v>
-      </c>
-      <c r="D11" s="7">
-        <v>-2242.37</v>
-      </c>
-      <c r="E11" s="7">
-        <v>2596.59</v>
-      </c>
-      <c r="F11" s="7">
-        <v>3820.61</v>
-      </c>
-      <c r="G11" s="7">
-        <v>7708.26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7">
-        <v>-30.62</v>
-      </c>
-      <c r="C12" s="7">
-        <v>-90.83</v>
-      </c>
-      <c r="D12" s="7">
-        <v>-440.67</v>
-      </c>
-      <c r="E12" s="7">
-        <v>215.8</v>
-      </c>
-      <c r="F12" s="7">
-        <v>47.14</v>
-      </c>
-      <c r="G12" s="7">
-        <v>101.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="7">
-        <v>7137.23</v>
-      </c>
-      <c r="C13" s="7">
-        <v>680.73</v>
-      </c>
-      <c r="D13" s="7">
-        <v>-2646.72</v>
-      </c>
-      <c r="E13" s="7">
-        <v>3324.25</v>
-      </c>
-      <c r="F13" s="7">
-        <v>3552.46</v>
-      </c>
-      <c r="G13" s="7">
-        <v>7798.45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7">
-        <v>-30.61</v>
-      </c>
-      <c r="C14" s="7">
-        <v>-90.46</v>
-      </c>
-      <c r="D14" s="7">
-        <v>-488.81</v>
-      </c>
-      <c r="E14" s="7">
-        <v>225.6</v>
-      </c>
-      <c r="F14" s="7">
-        <v>6.87</v>
-      </c>
-      <c r="G14" s="7">
-        <v>119.52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="7">
-        <v>1717.79</v>
-      </c>
-      <c r="C15" s="7">
-        <v>3980.16</v>
-      </c>
-      <c r="D15" s="7">
-        <v>2348.18</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2007.87</v>
-      </c>
-      <c r="F15" s="7">
-        <v>132.16</v>
-      </c>
-      <c r="G15" s="7">
-        <v>78.09</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="7">
-        <v>5419.45</v>
-      </c>
-      <c r="C16" s="7">
-        <v>-3299.43</v>
-      </c>
-      <c r="D16" s="7">
-        <v>-4994.9</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1316.38</v>
-      </c>
-      <c r="F16" s="7">
-        <v>3420.3</v>
-      </c>
-      <c r="G16" s="7">
-        <v>7720.36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
-        <v>-42.05</v>
-      </c>
-      <c r="C17" s="7">
-        <v>-160.88</v>
-      </c>
-      <c r="D17" s="7">
-        <v>-52.74</v>
-      </c>
-      <c r="E17" s="7">
-        <v>138.71</v>
-      </c>
-      <c r="F17" s="7">
-        <v>159.83</v>
-      </c>
-      <c r="G17" s="7">
-        <v>125.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="7">
-        <v>6619.42</v>
-      </c>
-      <c r="C19" s="7">
-        <v>193</v>
-      </c>
-      <c r="D19" s="7">
-        <v>-2447.78</v>
-      </c>
-      <c r="E19" s="7">
-        <v>2596.59</v>
-      </c>
-      <c r="F19" s="7">
-        <v>3820.61</v>
-      </c>
-      <c r="G19" s="7">
-        <v>7708.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="7">
-        <v>9182.32</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3297.19</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1600.2</v>
-      </c>
-      <c r="E20" s="7">
-        <v>6972.97</v>
-      </c>
-      <c r="F20" s="7">
-        <v>7825.51</v>
-      </c>
-      <c r="G20" s="7">
-        <v>11595.03</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="C76" s="5">
+        <v>11.70001025</v>
+      </c>
+      <c r="D76" s="5">
+        <v>40.10972993</v>
+      </c>
+      <c r="E76" s="5">
+        <v>46.67205534</v>
+      </c>
+      <c r="F76" s="5">
+        <v>45.16038556</v>
+      </c>
+      <c r="G76" s="5">
+        <v>48.68349036</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="B77" s="5">
+        <v>-27.54771285</v>
+      </c>
+      <c r="C77" s="5">
+        <v>-65.13405804</v>
+      </c>
+      <c r="D77" s="5">
+        <v>406.76498636</v>
+      </c>
+      <c r="E77" s="5">
+        <v>-691.89359766</v>
+      </c>
+      <c r="F77" s="5">
+        <v>216.39064575</v>
+      </c>
+      <c r="G77" s="5">
+        <v>-36.42527188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="7">
-        <v>62756.62</v>
-      </c>
-      <c r="C25" s="7">
-        <v>43213.28</v>
-      </c>
-      <c r="D25" s="7">
-        <v>49606.72</v>
-      </c>
-      <c r="E25" s="7">
-        <v>72889.65</v>
-      </c>
-      <c r="F25" s="7">
-        <v>91140.44</v>
-      </c>
-      <c r="G25" s="7">
-        <v>102075.78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="7">
-        <v>14098.52</v>
-      </c>
-      <c r="C27" s="7">
-        <v>13275.17</v>
-      </c>
-      <c r="D27" s="7">
-        <v>11008.34</v>
-      </c>
-      <c r="E27" s="7">
-        <v>12109.09</v>
-      </c>
-      <c r="F27" s="7">
-        <v>13245.37</v>
-      </c>
-      <c r="G27" s="7">
-        <v>14406.66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="7">
-        <v>106125.11</v>
-      </c>
-      <c r="C28" s="7">
-        <v>93488.85</v>
-      </c>
-      <c r="D28" s="7">
-        <v>97617.05</v>
-      </c>
-      <c r="E28" s="7">
-        <v>120915.81</v>
-      </c>
-      <c r="F28" s="7">
-        <v>135404.62</v>
-      </c>
-      <c r="G28" s="7">
-        <v>146048.56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="7">
-        <v>54602.7</v>
-      </c>
-      <c r="C29" s="7">
-        <v>43159.96</v>
-      </c>
-      <c r="D29" s="7">
-        <v>49233.36</v>
-      </c>
-      <c r="E29" s="7">
-        <v>62592.98</v>
-      </c>
-      <c r="F29" s="7">
-        <v>76106.71</v>
-      </c>
-      <c r="G29" s="7">
-        <v>79948.65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="7">
-        <v>4059.24</v>
-      </c>
-      <c r="C30" s="7">
-        <v>4175.97</v>
-      </c>
-      <c r="D30" s="7">
-        <v>4449.62</v>
-      </c>
-      <c r="E30" s="7">
-        <v>4842.52</v>
-      </c>
-      <c r="F30" s="7">
-        <v>3431.68</v>
-      </c>
-      <c r="G30" s="7">
-        <v>3151.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="7">
-        <v>58661.94</v>
-      </c>
-      <c r="C31" s="7">
-        <v>47335.93</v>
-      </c>
-      <c r="D31" s="7">
-        <v>53682.98</v>
-      </c>
-      <c r="E31" s="7">
-        <v>67435.5</v>
-      </c>
-      <c r="F31" s="7">
-        <v>79538.38</v>
-      </c>
-      <c r="G31" s="7">
-        <v>83099.75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="7">
-        <v>47463.18</v>
-      </c>
-      <c r="C32" s="7">
-        <v>46152.92</v>
-      </c>
-      <c r="D32" s="7">
-        <v>43934.07</v>
-      </c>
-      <c r="E32" s="7">
-        <v>53480.31</v>
-      </c>
-      <c r="F32" s="7">
-        <v>55866.24</v>
-      </c>
-      <c r="G32" s="7">
-        <v>62948.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="7">
-        <v>47598.69</v>
-      </c>
-      <c r="C33" s="7">
-        <v>46244.96</v>
-      </c>
-      <c r="D33" s="7">
-        <v>44028.31</v>
-      </c>
-      <c r="E33" s="7">
-        <v>53410.19</v>
-      </c>
-      <c r="F33" s="7">
-        <v>55732.93</v>
-      </c>
-      <c r="G33" s="7">
-        <v>62858.11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="7">
+      <c r="B78" s="5">
         <v>-1369.58</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C78" s="5">
         <v>-3887.48</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D78" s="5">
         <v>3881.75</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E78" s="5">
         <v>10675.95</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F78" s="5">
         <v>22971.72</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G78" s="5">
         <v>5666.35</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="7">
-        <v>4427.99</v>
-      </c>
-      <c r="C36" s="7">
-        <v>-6568.72</v>
-      </c>
-      <c r="D36" s="7">
-        <v>-3794.61</v>
-      </c>
-      <c r="E36" s="7">
-        <v>3604.7</v>
-      </c>
-      <c r="F36" s="7">
-        <v>-1489.23</v>
-      </c>
-      <c r="G36" s="7">
-        <v>-2953.97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="7">
-        <v>-4574.97</v>
-      </c>
-      <c r="C37" s="7">
-        <v>-1352.69</v>
-      </c>
-      <c r="D37" s="7">
-        <v>-400.57</v>
-      </c>
-      <c r="E37" s="7">
-        <v>7047.39</v>
-      </c>
-      <c r="F37" s="7">
-        <v>-2595.96</v>
-      </c>
-      <c r="G37" s="7">
-        <v>224.43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="7">
-        <v>-1542.13</v>
-      </c>
-      <c r="C38" s="7">
-        <v>-11803.15</v>
-      </c>
-      <c r="D38" s="7">
-        <v>-287.68</v>
-      </c>
-      <c r="E38" s="7">
-        <v>21295.49</v>
-      </c>
-      <c r="F38" s="7">
-        <v>18861.95</v>
-      </c>
-      <c r="G38" s="7">
-        <v>2973.52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="7">
-        <v>21451.31</v>
-      </c>
-      <c r="C39" s="7">
-        <v>9648.15</v>
-      </c>
-      <c r="D39" s="7">
-        <v>9360.47</v>
-      </c>
-      <c r="E39" s="7">
-        <v>30655.97</v>
-      </c>
-      <c r="F39" s="7">
-        <v>49517.92</v>
-      </c>
-      <c r="G39" s="7">
-        <v>52491.44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" s="7">
-        <v>3308.58</v>
-      </c>
-      <c r="C40" s="7">
-        <v>6488.33</v>
-      </c>
-      <c r="D40" s="7">
-        <v>4783.72</v>
-      </c>
-      <c r="E40" s="7">
-        <v>2960.05</v>
-      </c>
-      <c r="F40" s="7">
-        <v>2009.77</v>
-      </c>
-      <c r="G40" s="7">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B42" s="7">
-        <v>15.66</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1.45</v>
-      </c>
-      <c r="D42" s="7">
-        <v>-5.86</v>
-      </c>
-      <c r="E42" s="7">
-        <v>6.82</v>
-      </c>
-      <c r="F42" s="7">
-        <v>6.51</v>
-      </c>
-      <c r="G42" s="7">
-        <v>13.15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="7">
-        <v>14.99</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1.47</v>
-      </c>
-      <c r="D43" s="7">
-        <v>-6.01</v>
-      </c>
-      <c r="E43" s="7">
-        <v>6.22</v>
-      </c>
-      <c r="F43" s="7">
-        <v>6.37</v>
-      </c>
-      <c r="G43" s="7">
-        <v>12.41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="7">
-        <v>11.89</v>
-      </c>
-      <c r="C44" s="7">
-        <v>-7.03</v>
-      </c>
-      <c r="D44" s="7">
-        <v>-11.07</v>
-      </c>
-      <c r="E44" s="7">
-        <v>2.7</v>
-      </c>
-      <c r="F44" s="7">
-        <v>6.27</v>
-      </c>
-      <c r="G44" s="7">
-        <v>13.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45" s="7">
-        <v>14.99</v>
-      </c>
-      <c r="C45" s="7">
-        <v>1.47</v>
-      </c>
-      <c r="D45" s="7">
-        <v>-6.01</v>
-      </c>
-      <c r="E45" s="7">
-        <v>6.22</v>
-      </c>
-      <c r="F45" s="7">
-        <v>6.37</v>
-      </c>
-      <c r="G45" s="7">
-        <v>12.41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="7">
-        <v>6.71</v>
-      </c>
-      <c r="C46" s="7">
+    <row r="79" spans="1:7">
+      <c r="A79" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="C79" s="5">
+        <v>6.59</v>
+      </c>
+      <c r="D79" s="5">
+        <v>10.03</v>
+      </c>
+      <c r="E79" s="5">
+        <v>21.88</v>
+      </c>
+      <c r="F79" s="5">
+        <v>15.19</v>
+      </c>
+      <c r="G79" s="5">
+        <v>12.31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1.49</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0.14</v>
+      </c>
+      <c r="D80" s="5">
+        <v>-0.55</v>
+      </c>
+      <c r="E80" s="5">
         <v>0.68</v>
       </c>
-      <c r="D46" s="7">
-        <v>-2.77</v>
-      </c>
-      <c r="E46" s="7">
-        <v>3.04</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2.77</v>
-      </c>
-      <c r="G46" s="7">
-        <v>5.54</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47" s="7">
-        <v>10.85</v>
-      </c>
-      <c r="C47" s="7">
-        <v>1.44</v>
-      </c>
-      <c r="D47" s="7">
-        <v>-5.83</v>
-      </c>
-      <c r="E47" s="7">
-        <v>6.69</v>
-      </c>
-      <c r="F47" s="7">
-        <v>6.35</v>
-      </c>
-      <c r="G47" s="7">
-        <v>12.82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48" s="7">
-        <v>9.85</v>
-      </c>
-      <c r="C48" s="7">
-        <v>11.58</v>
-      </c>
-      <c r="D48" s="7">
-        <v>11.56</v>
-      </c>
-      <c r="E48" s="7">
-        <v>10.9</v>
-      </c>
-      <c r="F48" s="7">
-        <v>13.36</v>
-      </c>
-      <c r="G48" s="7">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="7">
-        <v>9.37</v>
-      </c>
-      <c r="C49" s="7">
-        <v>1.13</v>
-      </c>
-      <c r="D49" s="7">
-        <v>-3.89</v>
-      </c>
-      <c r="E49" s="7">
-        <v>4.04</v>
-      </c>
-      <c r="F49" s="7">
-        <v>3.56</v>
-      </c>
-      <c r="G49" s="7">
-        <v>6.61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" s="7">
-        <v>8.6</v>
-      </c>
-      <c r="C50" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="D50" s="7">
-        <v>-3.59</v>
-      </c>
-      <c r="E50" s="7">
-        <v>3.19</v>
-      </c>
-      <c r="F50" s="7">
-        <v>3.78</v>
-      </c>
-      <c r="G50" s="7">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="7">
-        <v>11.93</v>
-      </c>
-      <c r="C51" s="7">
-        <v>5.15</v>
-      </c>
-      <c r="D51" s="7">
-        <v>2.35</v>
-      </c>
-      <c r="E51" s="7">
-        <v>8.57</v>
-      </c>
-      <c r="F51" s="7">
-        <v>7.74</v>
-      </c>
-      <c r="G51" s="7">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" s="7">
-        <v>55.28</v>
-      </c>
-      <c r="C52" s="7">
-        <v>50.63</v>
-      </c>
-      <c r="D52" s="7">
-        <v>54.99</v>
-      </c>
-      <c r="E52" s="7">
-        <v>55.77</v>
-      </c>
-      <c r="F52" s="7">
-        <v>58.74</v>
-      </c>
-      <c r="G52" s="7">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="C53" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0.71</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0.74</v>
-      </c>
-      <c r="F53" s="7">
-        <v>0.79</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1.49</v>
-      </c>
-      <c r="C56" s="7">
-        <v>0.14</v>
-      </c>
-      <c r="D56" s="7">
-        <v>-0.55</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="F56" s="7">
+      <c r="F80" s="5">
         <v>0.47</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G80" s="5">
         <v>0.8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="7">
-        <v>9.91</v>
-      </c>
-      <c r="C57" s="7">
-        <v>9.63</v>
-      </c>
-      <c r="D57" s="7">
-        <v>9.17</v>
-      </c>
-      <c r="E57" s="7">
-        <v>9.96</v>
-      </c>
-      <c r="F57" s="7">
-        <v>7.3</v>
-      </c>
-      <c r="G57" s="7">
-        <v>6.34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="7">
-        <v>-0.29</v>
-      </c>
-      <c r="C58" s="7">
-        <v>-0.81</v>
-      </c>
-      <c r="D58" s="7">
-        <v>0.81</v>
-      </c>
-      <c r="E58" s="7">
-        <v>1.99</v>
-      </c>
-      <c r="F58" s="7">
-        <v>3.01</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="7">
-        <v>-0.32</v>
-      </c>
-      <c r="C59" s="7">
-        <v>-2.46</v>
-      </c>
-      <c r="D59" s="7">
-        <v>-0.06</v>
-      </c>
-      <c r="E59" s="7">
-        <v>3.97</v>
-      </c>
-      <c r="F59" s="7">
-        <v>2.47</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="8">
-        <v>39138</v>
-      </c>
-      <c r="C65" s="8">
-        <v>36029</v>
-      </c>
-      <c r="D65" s="8">
-        <v>36764</v>
-      </c>
-      <c r="E65" s="8">
-        <v>40298</v>
-      </c>
-      <c r="F65" s="8">
-        <v>42444</v>
-      </c>
-      <c r="G65" s="8">
-        <v>42894</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B68" s="8">
-        <v>1</v>
-      </c>
-      <c r="C68" s="8">
-        <v>1</v>
-      </c>
-      <c r="D68" s="8">
-        <v>1</v>
-      </c>
-      <c r="E68" s="8">
-        <v>1</v>
-      </c>
-      <c r="F68" s="8">
-        <v>1</v>
-      </c>
-      <c r="G68" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="8">
-        <v>1</v>
-      </c>
-      <c r="C70" s="8">
-        <v>1</v>
-      </c>
-      <c r="D70" s="8">
-        <v>1</v>
-      </c>
-      <c r="E70" s="8">
-        <v>1</v>
-      </c>
-      <c r="F70" s="8">
-        <v>1</v>
-      </c>
-      <c r="G70" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4558,14 +5055,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B60" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13392857142857" defaultRowHeight="16.8" outlineLevelCol="6"/>
@@ -4577,7 +5074,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -4623,25 +5120,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4720,7 +5217,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="B8" s="3">
         <v>81757.86</v>
@@ -4789,7 +5286,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B11" s="3">
         <v>12773.96</v>
@@ -5019,17 +5516,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:1">
@@ -5067,7 +5564,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B27" s="3">
         <v>4804.89</v>
@@ -5090,7 +5587,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B28" s="3">
         <v>84980.75</v>
@@ -5159,7 +5656,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B31" s="3">
         <v>50169.92</v>
@@ -5182,7 +5679,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B32" s="3">
         <v>34810.83</v>
@@ -5205,7 +5702,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3">
         <v>34467.05</v>
@@ -5233,7 +5730,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B35" s="3">
         <v>11993.5</v>
@@ -5256,7 +5753,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B36" s="3">
         <v>-11911.15</v>
@@ -5279,7 +5776,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B37" s="3">
         <v>-1684.6</v>
@@ -5302,7 +5799,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B38" s="3">
         <v>-1630.86</v>
@@ -5348,7 +5845,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B40" s="3">
         <v>7641.65</v>
@@ -5376,7 +5873,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B42" s="3">
         <v>36.11</v>
@@ -5869,7 +6366,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B65" s="4">
         <v>32851</v>
@@ -5984,7 +6481,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B70" s="4">
         <v>1</v>
@@ -6005,9 +6502,234 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="1" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="5" t="s">
         <v>87</v>
+      </c>
+      <c r="B71" s="5">
+        <v>81757.86</v>
+      </c>
+      <c r="C71" s="5">
+        <v>93382.16</v>
+      </c>
+      <c r="D71" s="5">
+        <v>89939.27</v>
+      </c>
+      <c r="E71" s="5">
+        <v>88183.96</v>
+      </c>
+      <c r="F71" s="5">
+        <v>98557.4</v>
+      </c>
+      <c r="G71" s="5">
+        <v>145593.52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="5">
+        <v>13415</v>
+      </c>
+      <c r="C72" s="5">
+        <v>15737</v>
+      </c>
+      <c r="D72" s="5">
+        <v>19281</v>
+      </c>
+      <c r="E72" s="5">
+        <v>18977</v>
+      </c>
+      <c r="F72" s="5">
+        <v>28014</v>
+      </c>
+      <c r="G72" s="5">
+        <v>33341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="5">
+        <v>29492</v>
+      </c>
+      <c r="C73" s="5">
+        <v>18095</v>
+      </c>
+      <c r="D73" s="5">
+        <v>19804</v>
+      </c>
+      <c r="E73" s="5">
+        <v>24817</v>
+      </c>
+      <c r="F73" s="5">
+        <v>27223</v>
+      </c>
+      <c r="G73" s="5">
+        <v>29096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F74" s="5">
+        <v>67</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="5">
+        <v>10633.72</v>
+      </c>
+      <c r="C75" s="5">
+        <v>12553.21</v>
+      </c>
+      <c r="D75" s="5">
+        <v>8189.64</v>
+      </c>
+      <c r="E75" s="5">
+        <v>5533.79</v>
+      </c>
+      <c r="F75" s="5">
+        <v>4847.45</v>
+      </c>
+      <c r="G75" s="5">
+        <v>5260.35</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="5">
+        <v>110</v>
+      </c>
+      <c r="C76" s="5">
+        <v>114</v>
+      </c>
+      <c r="D76" s="5">
+        <v>128</v>
+      </c>
+      <c r="E76" s="5">
+        <v>167</v>
+      </c>
+      <c r="F76" s="5">
+        <v>265</v>
+      </c>
+      <c r="G76" s="5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="5">
+        <v>2039</v>
+      </c>
+      <c r="C77" s="5">
+        <v>2285</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1375</v>
+      </c>
+      <c r="E77" s="5">
+        <v>866</v>
+      </c>
+      <c r="F77" s="5">
+        <v>312</v>
+      </c>
+      <c r="G77" s="5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="5">
+        <v>11993.5</v>
+      </c>
+      <c r="C78" s="5">
+        <v>13925.12</v>
+      </c>
+      <c r="D78" s="5">
+        <v>12537.7</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1596.59</v>
+      </c>
+      <c r="F78" s="5">
+        <v>15348.34</v>
+      </c>
+      <c r="G78" s="5">
+        <v>16018.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79" s="5">
+        <v>27.1</v>
+      </c>
+      <c r="C79" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="D79" s="5">
+        <v>15.24</v>
+      </c>
+      <c r="E79" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="F79" s="5">
+        <v>21.3</v>
+      </c>
+      <c r="G79" s="5">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B80" s="5">
+        <v>1.19</v>
+      </c>
+      <c r="C80" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="D80" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="E80" s="5">
+        <v>0.56</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.48</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
